--- a/DataUpload/Seed Data/data.xlsx
+++ b/DataUpload/Seed Data/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13632" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13633" uniqueCount="693">
   <si>
     <t>S.No</t>
   </si>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>UP-WEST, DHARMESH SOLANKI</t>
+  </si>
+  <si>
+    <t>some beat</t>
   </si>
 </sst>
 </file>
@@ -3843,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA640"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="M73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12348,7 +12351,9 @@
       <c r="O97" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="P97" s="1"/>
+      <c r="P97" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>

--- a/DataUpload/Seed Data/data.xlsx
+++ b/DataUpload/Seed Data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\Visual Studio 2015\Projects\DataUpload\DataUpload\Seed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13633" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13633" uniqueCount="694">
   <si>
     <t>S.No</t>
   </si>
@@ -2101,6 +2101,9 @@
   </si>
   <si>
     <t>some beat</t>
+  </si>
+  <si>
+    <t>343</t>
   </si>
 </sst>
 </file>
@@ -3846,8 +3849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,7 +4074,7 @@
         <v>61</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>490</v>
